--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nummer</t>
   </si>
@@ -41,13 +41,73 @@
     <t>Gruppe</t>
   </si>
   <si>
-    <t>Lumineszenz</t>
-  </si>
-  <si>
     <t>9635.1</t>
   </si>
   <si>
     <t>3005.1</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>326</t>
   </si>
 </sst>
 </file>
@@ -376,20 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="3"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -400,24 +459,252 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2.67</v>
+      </c>
+      <c r="C3">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2.59</v>
+      </c>
+      <c r="C4">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2.86</v>
+      </c>
+      <c r="C5">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2.98</v>
+      </c>
+      <c r="C6">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2.89</v>
+      </c>
+      <c r="C7">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3.11</v>
+      </c>
+      <c r="C8">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2.74</v>
+      </c>
+      <c r="C9">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2.81</v>
+      </c>
+      <c r="C10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2.46</v>
+      </c>
+      <c r="C11">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2.82</v>
+      </c>
+      <c r="C12">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2.86</v>
+      </c>
+      <c r="C13">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>2.52</v>
+      </c>
+      <c r="C14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2.57</v>
+      </c>
+      <c r="C15">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2.9</v>
+      </c>
+      <c r="C16">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2.54</v>
+      </c>
+      <c r="C17">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2.21</v>
+      </c>
+      <c r="C18">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3.96</v>
+      </c>
+      <c r="C19">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2.64</v>
+      </c>
+      <c r="C20">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2.64</v>
+      </c>
+      <c r="C21">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F112" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F113" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G112" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G113" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101">
+  <autoFilter ref="A1:D101">
     <sortState ref="A2:E103">
       <sortCondition ref="A1:A101"/>
     </sortState>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nummer</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>326</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1205</t>
   </si>
 </sst>
 </file>
@@ -438,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +700,39 @@
       </c>
       <c r="C22">
         <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>3.8</v>
+      </c>
+      <c r="C23">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>3.25</v>
+      </c>
+      <c r="C24">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>3.65</v>
+      </c>
+      <c r="C25">
+        <v>5.79</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.3">

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Nummer</t>
   </si>
@@ -117,6 +117,117 @@
   </si>
   <si>
     <t>1205</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3051</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>3101</t>
+  </si>
+  <si>
+    <t>3160</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>3181</t>
+  </si>
+  <si>
+    <t>3185</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>3230</t>
+  </si>
+  <si>
+    <t>3280</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>3360</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>6190</t>
+  </si>
+  <si>
+    <t>6242</t>
+  </si>
+  <si>
+    <t>6244</t>
+  </si>
+  <si>
+    <t>6410</t>
+  </si>
+  <si>
+    <t>6555</t>
+  </si>
+  <si>
+    <t>6561</t>
+  </si>
+  <si>
+    <t>6562</t>
+  </si>
+  <si>
+    <t>6571</t>
+  </si>
+  <si>
+    <t>6825</t>
+  </si>
+  <si>
+    <t>6831</t>
+  </si>
+  <si>
+    <t>6836</t>
+  </si>
+  <si>
+    <t>6838</t>
+  </si>
+  <si>
+    <t>8230</t>
+  </si>
+  <si>
+    <t>8231</t>
+  </si>
+  <si>
+    <t>9005</t>
+  </si>
+  <si>
+    <t>9006</t>
   </si>
 </sst>
 </file>
@@ -447,17 +558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="3"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -482,7 +593,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -493,7 +604,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -504,7 +615,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -515,7 +626,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -526,7 +637,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -537,7 +648,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -548,7 +659,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -559,7 +670,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -570,7 +681,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -581,7 +692,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -592,7 +703,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -603,7 +714,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -614,7 +725,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -625,7 +736,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -636,7 +747,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -647,7 +758,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -658,7 +769,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -669,7 +780,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -680,7 +791,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -691,7 +802,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -702,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -713,7 +824,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -724,7 +835,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -735,12 +846,419 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>3.7</v>
+      </c>
+      <c r="C26">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>1.78</v>
+      </c>
+      <c r="C27">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>2.76</v>
+      </c>
+      <c r="C28">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>1.9</v>
+      </c>
+      <c r="C29">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C30">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>3.7</v>
+      </c>
+      <c r="C31">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C32">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C33">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>1.91</v>
+      </c>
+      <c r="C34">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>2.63</v>
+      </c>
+      <c r="C35">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>1.92</v>
+      </c>
+      <c r="C36">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C37">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>2.81</v>
+      </c>
+      <c r="C38">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C40">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>2.02</v>
+      </c>
+      <c r="C41">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>3.72</v>
+      </c>
+      <c r="C42">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>1.8</v>
+      </c>
+      <c r="C43">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>1.88</v>
+      </c>
+      <c r="C44">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>3.78</v>
+      </c>
+      <c r="C45">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>3.41</v>
+      </c>
+      <c r="C46">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>3.57</v>
+      </c>
+      <c r="C47">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>2.69</v>
+      </c>
+      <c r="C48">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>3.09</v>
+      </c>
+      <c r="C49">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>3.49</v>
+      </c>
+      <c r="C50">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>3.33</v>
+      </c>
+      <c r="C51">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>3.16</v>
+      </c>
+      <c r="C52">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>3.19</v>
+      </c>
+      <c r="C53">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>2.85</v>
+      </c>
+      <c r="C54">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>2.81</v>
+      </c>
+      <c r="C55">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>2.59</v>
+      </c>
+      <c r="C56">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>3.46</v>
+      </c>
+      <c r="C57">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C58">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>2.95</v>
+      </c>
+      <c r="C59">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>3.77</v>
+      </c>
+      <c r="C60">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>3.69</v>
+      </c>
+      <c r="C61">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>2.34</v>
+      </c>
+      <c r="C62">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="3" t="s">
         <v>4</v>
       </c>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Nummer</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Gruppe</t>
   </si>
   <si>
-    <t>9635.1</t>
-  </si>
-  <si>
-    <t>3005.1</t>
-  </si>
-  <si>
     <t>327</t>
   </si>
   <si>
@@ -224,10 +218,28 @@
     <t>8231</t>
   </si>
   <si>
-    <t>9005</t>
-  </si>
-  <si>
-    <t>9006</t>
+    <t>9007</t>
+  </si>
+  <si>
+    <t>9180</t>
+  </si>
+  <si>
+    <t>9181</t>
+  </si>
+  <si>
+    <t>9182</t>
+  </si>
+  <si>
+    <t>9230</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>9185</t>
+  </si>
+  <si>
+    <t>9570</t>
   </si>
 </sst>
 </file>
@@ -271,11 +283,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,20 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -583,206 +599,206 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2.67</v>
+      </c>
+      <c r="C2">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2.59</v>
+      </c>
+      <c r="C3">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="C2">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2.67</v>
-      </c>
-      <c r="C3">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4">
+        <v>2.86</v>
+      </c>
+      <c r="C4">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2.98</v>
+      </c>
+      <c r="C5">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>2.59</v>
-      </c>
-      <c r="C4">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
+        <v>2.89</v>
+      </c>
+      <c r="C6">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.11</v>
+      </c>
+      <c r="C7">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2.74</v>
+      </c>
+      <c r="C8">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2.81</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2.46</v>
+      </c>
+      <c r="C10">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2.82</v>
+      </c>
+      <c r="C11">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>2.86</v>
       </c>
-      <c r="C5">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2.98</v>
-      </c>
-      <c r="C6">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2.89</v>
-      </c>
-      <c r="C7">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>3.11</v>
-      </c>
-      <c r="C8">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2.74</v>
-      </c>
-      <c r="C9">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>2.81</v>
-      </c>
-      <c r="C10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2.46</v>
-      </c>
-      <c r="C11">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C12">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>2.82</v>
-      </c>
-      <c r="C12">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13">
+        <v>2.52</v>
+      </c>
+      <c r="C13">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>2.86</v>
-      </c>
-      <c r="C13">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14">
+        <v>2.57</v>
+      </c>
+      <c r="C14">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>2.52</v>
-      </c>
-      <c r="C14">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15">
+        <v>2.9</v>
+      </c>
+      <c r="C15">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>2.57</v>
-      </c>
-      <c r="C15">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16">
+        <v>2.54</v>
+      </c>
+      <c r="C16">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>2.9</v>
-      </c>
-      <c r="C16">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17">
+        <v>2.21</v>
+      </c>
+      <c r="C17">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>2.54</v>
-      </c>
-      <c r="C17">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18">
+        <v>3.96</v>
+      </c>
+      <c r="C18">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>2.21</v>
-      </c>
-      <c r="C18">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19">
+        <v>2.64</v>
+      </c>
+      <c r="C19">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B19">
-        <v>3.96</v>
-      </c>
-      <c r="C19">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B20">
         <v>2.64</v>
@@ -792,30 +808,30 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
+      <c r="A21" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>2.64</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C21">
-        <v>5.74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
+      <c r="A22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B22">
         <v>2.2799999999999998</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
+      <c r="A23" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
         <v>3.8</v>
@@ -825,8 +841,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
+      <c r="A24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
         <v>3.25</v>
@@ -836,8 +852,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
+      <c r="A25" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B25">
         <v>3.65</v>
@@ -847,8 +863,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
+      <c r="A26" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B26">
         <v>3.7</v>
@@ -858,8 +874,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
+      <c r="A27" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1.78</v>
@@ -869,8 +885,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
+      <c r="A28" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2.76</v>
@@ -880,8 +896,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
+      <c r="A29" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1.9</v>
@@ -891,8 +907,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
+      <c r="A30" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2.4500000000000002</v>
@@ -902,8 +918,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
+      <c r="A31" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>3.7</v>
@@ -913,8 +929,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
+      <c r="A32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2.2999999999999998</v>
@@ -924,8 +940,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
+      <c r="A33" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2.3199999999999998</v>
@@ -935,8 +951,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>38</v>
+      <c r="A34" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B34">
         <v>1.91</v>
@@ -946,8 +962,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
+      <c r="A35" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2.63</v>
@@ -957,8 +973,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
+      <c r="A36" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1.92</v>
@@ -968,8 +984,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
+      <c r="A37" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2.2999999999999998</v>
@@ -979,8 +995,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
+      <c r="A38" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2.81</v>
@@ -990,8 +1006,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
+      <c r="A39" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2.5099999999999998</v>
@@ -1001,8 +1017,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
+      <c r="A40" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2.4900000000000002</v>
@@ -1012,8 +1028,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>45</v>
+      <c r="A41" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2.02</v>
@@ -1023,8 +1039,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
+      <c r="A42" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B42">
         <v>3.72</v>
@@ -1034,8 +1050,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>47</v>
+      <c r="A43" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B43">
         <v>1.8</v>
@@ -1045,8 +1061,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>48</v>
+      <c r="A44" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
         <v>1.88</v>
@@ -1056,8 +1072,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>49</v>
+      <c r="A45" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B45">
         <v>3.78</v>
@@ -1067,8 +1083,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>50</v>
+      <c r="A46" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B46">
         <v>3.41</v>
@@ -1078,8 +1094,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>51</v>
+      <c r="A47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B47">
         <v>3.57</v>
@@ -1089,8 +1105,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>52</v>
+      <c r="A48" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B48">
         <v>2.69</v>
@@ -1100,8 +1116,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>53</v>
+      <c r="A49" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B49">
         <v>3.09</v>
@@ -1111,8 +1127,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>54</v>
+      <c r="A50" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B50">
         <v>3.49</v>
@@ -1122,8 +1138,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>55</v>
+      <c r="A51" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B51">
         <v>3.33</v>
@@ -1133,8 +1149,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>56</v>
+      <c r="A52" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B52">
         <v>3.16</v>
@@ -1144,8 +1160,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
+      <c r="A53" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B53">
         <v>3.19</v>
@@ -1155,8 +1171,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>58</v>
+      <c r="A54" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B54">
         <v>2.85</v>
@@ -1166,8 +1182,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>59</v>
+      <c r="A55" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B55">
         <v>2.81</v>
@@ -1177,8 +1193,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>60</v>
+      <c r="A56" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B56">
         <v>2.59</v>
@@ -1188,8 +1204,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>61</v>
+      <c r="A57" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B57">
         <v>3.46</v>
@@ -1199,8 +1215,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>62</v>
+      <c r="A58" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B58">
         <v>2.4500000000000002</v>
@@ -1210,8 +1226,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>63</v>
+      <c r="A59" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B59">
         <v>2.95</v>
@@ -1221,8 +1237,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>64</v>
+      <c r="A60" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B60">
         <v>3.77</v>
@@ -1232,41 +1248,466 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C61">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>9031</v>
+      </c>
+      <c r="B62">
+        <v>3.01</v>
+      </c>
+      <c r="C62">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>9040</v>
+      </c>
+      <c r="B63">
+        <v>1.67</v>
+      </c>
+      <c r="C63">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>9041</v>
+      </c>
+      <c r="B64">
+        <v>2.98</v>
+      </c>
+      <c r="C64">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>9042</v>
+      </c>
+      <c r="B65">
+        <v>3.15</v>
+      </c>
+      <c r="C65">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>9043</v>
+      </c>
+      <c r="B66">
+        <v>2.52</v>
+      </c>
+      <c r="C66">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>9120</v>
+      </c>
+      <c r="B67">
+        <v>3.2</v>
+      </c>
+      <c r="C67">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>9140</v>
+      </c>
+      <c r="B68">
+        <v>2.19</v>
+      </c>
+      <c r="C68">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>9145</v>
+      </c>
+      <c r="B69">
+        <v>3.2</v>
+      </c>
+      <c r="C69">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>9160</v>
+      </c>
+      <c r="B70">
+        <v>3.23</v>
+      </c>
+      <c r="C70">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>2.99</v>
+      </c>
+      <c r="C71">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
-        <v>3.69</v>
-      </c>
-      <c r="C61">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="B72">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C72">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62">
-        <v>2.34</v>
-      </c>
-      <c r="C62">
+      <c r="B73">
+        <v>3.52</v>
+      </c>
+      <c r="C73">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C74">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>1.97</v>
+      </c>
+      <c r="C75">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>3.89</v>
+      </c>
+      <c r="C76">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>9253</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>9254</v>
+      </c>
+      <c r="B78">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C78">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>9295</v>
+      </c>
+      <c r="B79">
+        <v>2.39</v>
+      </c>
+      <c r="C79">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>9300</v>
+      </c>
+      <c r="B80">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>9326</v>
+      </c>
+      <c r="B81">
+        <v>2.21</v>
+      </c>
+      <c r="C81">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>9332</v>
+      </c>
+      <c r="B82">
+        <v>2.25</v>
+      </c>
+      <c r="C82">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>9340</v>
+      </c>
+      <c r="B83">
+        <v>2.41</v>
+      </c>
+      <c r="C83">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>9373</v>
+      </c>
+      <c r="B84">
+        <v>3.38</v>
+      </c>
+      <c r="C84">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>9400</v>
+      </c>
+      <c r="B85">
+        <v>2.5</v>
+      </c>
+      <c r="C85">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>9402</v>
+      </c>
+      <c r="B86">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C86">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>9403</v>
+      </c>
+      <c r="B87">
+        <v>3.51</v>
+      </c>
+      <c r="C87">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>9405</v>
+      </c>
+      <c r="B88">
+        <v>1.83</v>
+      </c>
+      <c r="C88">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>9409</v>
+      </c>
+      <c r="B89">
+        <v>3.34</v>
+      </c>
+      <c r="C89">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>9411</v>
+      </c>
+      <c r="B90">
+        <v>4.63</v>
+      </c>
+      <c r="C90">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>9420</v>
+      </c>
+      <c r="B91">
+        <v>2.31</v>
+      </c>
+      <c r="C91">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>9421</v>
+      </c>
+      <c r="B92">
+        <v>2.21</v>
+      </c>
+      <c r="C92">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>9423</v>
+      </c>
+      <c r="B93">
+        <v>2.61</v>
+      </c>
+      <c r="C93">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9424</v>
+      </c>
+      <c r="B94">
+        <v>2.87</v>
+      </c>
+      <c r="C94">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9425</v>
+      </c>
+      <c r="B95">
+        <v>2.67</v>
+      </c>
+      <c r="C95">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96">
+        <v>1.68</v>
+      </c>
+      <c r="C96">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>9599</v>
+      </c>
+      <c r="B97">
+        <v>3.16</v>
+      </c>
+      <c r="C97">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>9800</v>
+      </c>
+      <c r="B98">
+        <v>2.04</v>
+      </c>
+      <c r="C98">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>9904</v>
+      </c>
+      <c r="B99">
+        <v>2.39</v>
+      </c>
+      <c r="C99">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>9905</v>
+      </c>
+      <c r="B100">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C100">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>9920</v>
+      </c>
+      <c r="B101">
+        <v>2.5</v>
+      </c>
+      <c r="C101">
         <v>5.76</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D101">
-    <sortState ref="A2:E103">
-      <sortCondition ref="A1:A101"/>
+  <autoFilter ref="A1:D93">
+    <sortState ref="A2:D101">
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:G101">

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Nummer</t>
   </si>
@@ -110,9 +110,6 @@
     <t>1111</t>
   </si>
   <si>
-    <t>1205</t>
-  </si>
-  <si>
     <t>1301</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>3350</t>
   </si>
   <si>
-    <t>3360</t>
-  </si>
-  <si>
     <t>6020</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>8231</t>
   </si>
   <si>
-    <t>9007</t>
-  </si>
-  <si>
     <t>9180</t>
   </si>
   <si>
@@ -240,6 +231,12 @@
   </si>
   <si>
     <t>9570</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>6940</t>
   </si>
 </sst>
 </file>
@@ -574,17 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A1:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -598,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -609,7 +606,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -620,7 +617,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -631,7 +628,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -642,7 +639,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -653,7 +650,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -664,7 +661,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -675,7 +672,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -686,7 +683,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -697,7 +694,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -708,7 +705,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -719,7 +716,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -730,7 +727,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -741,7 +738,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -752,7 +749,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -763,7 +760,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -774,7 +771,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -785,7 +782,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -796,7 +793,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -807,7 +804,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -818,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -829,7 +826,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -840,7 +837,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -851,20 +848,20 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2703</v>
+      </c>
+      <c r="B25">
+        <v>1.91</v>
+      </c>
+      <c r="C25">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B25">
-        <v>3.65</v>
-      </c>
-      <c r="C25">
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B26">
         <v>3.7</v>
@@ -873,9 +870,9 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1.78</v>
@@ -884,9 +881,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>2.76</v>
@@ -895,9 +892,9 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1.9</v>
@@ -906,9 +903,9 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>2.4500000000000002</v>
@@ -917,9 +914,9 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3.7</v>
@@ -928,9 +925,9 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>2.2999999999999998</v>
@@ -939,9 +936,9 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>2.3199999999999998</v>
@@ -950,9 +947,9 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>1.91</v>
@@ -961,9 +958,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>2.63</v>
@@ -972,9 +969,9 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>1.92</v>
@@ -983,9 +980,9 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>2.2999999999999998</v>
@@ -994,9 +991,9 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2.81</v>
@@ -1005,9 +1002,9 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>2.5099999999999998</v>
@@ -1016,9 +1013,9 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>2.4900000000000002</v>
@@ -1027,9 +1024,9 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>2.02</v>
@@ -1038,9 +1035,9 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3.72</v>
@@ -1049,9 +1046,9 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>1.8</v>
@@ -1060,9 +1057,9 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>1.88</v>
@@ -1071,20 +1068,20 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B45">
-        <v>3.78</v>
+        <v>1.82</v>
       </c>
       <c r="C45">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>3.41</v>
@@ -1093,9 +1090,9 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3.57</v>
@@ -1104,9 +1101,9 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>2.69</v>
@@ -1115,9 +1112,9 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>3.09</v>
@@ -1126,9 +1123,9 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3.49</v>
@@ -1137,9 +1134,9 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3.33</v>
@@ -1148,9 +1145,9 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>3.16</v>
@@ -1159,9 +1156,9 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3.19</v>
@@ -1170,9 +1167,9 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>2.85</v>
@@ -1181,9 +1178,9 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>2.81</v>
@@ -1192,9 +1189,9 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>2.59</v>
@@ -1203,9 +1200,9 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>3.46</v>
@@ -1214,9 +1211,9 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>2.4500000000000002</v>
@@ -1225,9 +1222,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>2.95</v>
@@ -1236,9 +1233,9 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>3.77</v>
@@ -1247,18 +1244,18 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>2.4900000000000002</v>
+        <v>3.53</v>
       </c>
       <c r="C61">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>9031</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>9040</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>9041</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>9042</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>9043</v>
       </c>
@@ -1313,7 +1310,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>9120</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>9140</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>9145</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>9160</v>
       </c>
@@ -1357,9 +1354,9 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71">
         <v>2.99</v>
@@ -1368,9 +1365,9 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72">
         <v>2.2599999999999998</v>
@@ -1379,9 +1376,9 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73">
         <v>3.52</v>
@@ -1390,9 +1387,9 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <v>2.4700000000000002</v>
@@ -1401,9 +1398,9 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>1.97</v>
@@ -1412,9 +1409,9 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B76">
         <v>3.89</v>
@@ -1423,7 +1420,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>9253</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>9254</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>9295</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>9300</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>9326</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>9332</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>9340</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>9373</v>
       </c>
@@ -1511,7 +1508,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>9400</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>9402</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>9403</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>9405</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>9409</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>9411</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>9420</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>9421</v>
       </c>
@@ -1599,7 +1596,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>9423</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>9424</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>9425</v>
       </c>
@@ -1632,9 +1629,9 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B96">
         <v>1.68</v>
@@ -1643,7 +1640,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>9599</v>
       </c>
@@ -1654,7 +1651,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>9800</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>9904</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>9905</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>9920</v>
       </c>
@@ -1698,10 +1695,10 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F105" s="2"/>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L82" sqref="L82:L101"/>
     </sheetView>
   </sheetViews>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
   <si>
     <t>Nummer</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>.jpg</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,6 +615,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
@@ -633,6 +645,10 @@
         <f>AVERAGE(B2:B21)</f>
         <v>2.7664999999999993</v>
       </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.S(B2:B21)</f>
+        <v>0.47897121108959811</v>
+      </c>
       <c r="I2" t="s">
         <v>73</v>
       </c>
@@ -668,6 +684,10 @@
         <f>AVERAGE(C2:C21)</f>
         <v>5.58</v>
       </c>
+      <c r="G3">
+        <f>_xlfn.STDEV.S(C2:C21)</f>
+        <v>0.40450099212681673</v>
+      </c>
       <c r="I3" t="s">
         <v>73</v>
       </c>
@@ -1207,6 +1227,10 @@
         <f>AVERAGE(B22:B41)</f>
         <v>2.7320000000000002</v>
       </c>
+      <c r="G22">
+        <f>_xlfn.STDEV.S(B22:B41)</f>
+        <v>0.67504073951132604</v>
+      </c>
       <c r="I22" t="s">
         <v>73</v>
       </c>
@@ -1242,6 +1266,10 @@
         <f>AVERAGE(C22:C41)</f>
         <v>5.6360000000000001</v>
       </c>
+      <c r="G23">
+        <f>_xlfn.STDEV.S(C22:C41)</f>
+        <v>0.30863707182589573</v>
+      </c>
       <c r="I23" t="s">
         <v>73</v>
       </c>
@@ -1781,6 +1809,10 @@
         <f>AVERAGE(B42:B61)</f>
         <v>2.8055000000000008</v>
       </c>
+      <c r="G42">
+        <f>_xlfn.STDEV.S(B42:B61)</f>
+        <v>0.59871331334700029</v>
+      </c>
       <c r="I42" t="s">
         <v>73</v>
       </c>
@@ -1816,6 +1848,10 @@
         <f>AVERAGE(C42:C61)</f>
         <v>5.6480000000000006</v>
       </c>
+      <c r="G43">
+        <f>_xlfn.STDEV.S(C42:C61)</f>
+        <v>0.33341297294243932</v>
+      </c>
       <c r="I43" t="s">
         <v>73</v>
       </c>
@@ -2355,6 +2391,10 @@
         <f>AVERAGE(B62:B81)</f>
         <v>2.6455000000000002</v>
       </c>
+      <c r="G62">
+        <f>_xlfn.STDEV.S(B62:B81)</f>
+        <v>0.52075324998353956</v>
+      </c>
       <c r="I62" t="s">
         <v>73</v>
       </c>
@@ -2390,6 +2430,10 @@
         <f>AVERAGE(C62:C81)</f>
         <v>5.5840000000000005</v>
       </c>
+      <c r="G63">
+        <f>_xlfn.STDEV.S(C62:C81)</f>
+        <v>0.35761490608283036</v>
+      </c>
       <c r="I63" t="s">
         <v>73</v>
       </c>
@@ -2929,6 +2973,10 @@
         <f>AVERAGE(B82:B101)</f>
         <v>2.7410000000000005</v>
       </c>
+      <c r="G82">
+        <f>_xlfn.STDEV.S(B82:B101)</f>
+        <v>0.81935725772673063</v>
+      </c>
       <c r="I82" t="s">
         <v>73</v>
       </c>
@@ -2963,6 +3011,10 @@
       <c r="F83">
         <f>AVERAGE(C82:C101)</f>
         <v>5.5975000000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xlfn.STDEV.S(C82:C101)</f>
+        <v>0.43640728200784373</v>
       </c>
       <c r="I83" t="s">
         <v>73</v>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -27,217 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
-  <si>
-    <t>Nummer</t>
-  </si>
-  <si>
-    <t>Valence</t>
-  </si>
-  <si>
-    <t>Arousal</t>
-  </si>
-  <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>2981</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>3022</t>
-  </si>
-  <si>
-    <t>3051</t>
-  </si>
-  <si>
-    <t>3061</t>
-  </si>
-  <si>
-    <t>3101</t>
-  </si>
-  <si>
-    <t>3160</t>
-  </si>
-  <si>
-    <t>3180</t>
-  </si>
-  <si>
-    <t>3181</t>
-  </si>
-  <si>
-    <t>3185</t>
-  </si>
-  <si>
-    <t>3215</t>
-  </si>
-  <si>
-    <t>3220</t>
-  </si>
-  <si>
-    <t>3230</t>
-  </si>
-  <si>
-    <t>3280</t>
-  </si>
-  <si>
-    <t>3301</t>
-  </si>
-  <si>
-    <t>3350</t>
-  </si>
-  <si>
-    <t>6020</t>
-  </si>
-  <si>
-    <t>6190</t>
-  </si>
-  <si>
-    <t>6242</t>
-  </si>
-  <si>
-    <t>6244</t>
-  </si>
-  <si>
-    <t>6410</t>
-  </si>
-  <si>
-    <t>6555</t>
-  </si>
-  <si>
-    <t>6561</t>
-  </si>
-  <si>
-    <t>6562</t>
-  </si>
-  <si>
-    <t>6571</t>
-  </si>
-  <si>
-    <t>6825</t>
-  </si>
-  <si>
-    <t>6831</t>
-  </si>
-  <si>
-    <t>6836</t>
-  </si>
-  <si>
-    <t>6838</t>
-  </si>
-  <si>
-    <t>8230</t>
-  </si>
-  <si>
-    <t>8231</t>
-  </si>
-  <si>
-    <t>9180</t>
-  </si>
-  <si>
-    <t>9181</t>
-  </si>
-  <si>
-    <t>9182</t>
-  </si>
-  <si>
-    <t>9230</t>
-  </si>
-  <si>
-    <t>9184</t>
-  </si>
-  <si>
-    <t>9185</t>
-  </si>
-  <si>
-    <t>9570</t>
-  </si>
-  <si>
-    <t>3225</t>
-  </si>
-  <si>
-    <t>6940</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="11">
   <si>
     <t>Durchschnittliche Valenz</t>
   </si>
@@ -258,6 +48,18 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>valence</t>
+  </si>
+  <si>
+    <t>arousal</t>
   </si>
 </sst>
 </file>
@@ -301,15 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -592,42 +398,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82:G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="5"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
+      <c r="A2" s="4">
+        <v>219</v>
       </c>
       <c r="B2">
         <v>2.98</v>
@@ -639,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:B21)</f>
@@ -650,14 +456,14 @@
         <v>0.47897121108959811</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
         <f>A2</f>
         <v>219</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L2" t="str">
         <f>I2&amp;J2&amp;K2</f>
@@ -665,8 +471,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
+      <c r="A3" s="4">
+        <v>222</v>
       </c>
       <c r="B3">
         <v>2.89</v>
@@ -678,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>AVERAGE(C2:C21)</f>
@@ -689,14 +495,14 @@
         <v>0.40450099212681673</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="0">A3</f>
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" si="1">I3&amp;J3&amp;K3</f>
@@ -704,8 +510,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
+      <c r="A4" s="4">
+        <v>238</v>
       </c>
       <c r="B4">
         <v>2.52</v>
@@ -717,14 +523,14 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
@@ -732,8 +538,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
+      <c r="A5" s="4">
+        <v>255</v>
       </c>
       <c r="B5">
         <v>2.64</v>
@@ -745,14 +551,14 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
@@ -760,8 +566,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
+      <c r="A6" s="4">
+        <v>327</v>
       </c>
       <c r="B6">
         <v>2.2799999999999998</v>
@@ -773,14 +579,14 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -788,8 +594,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>25</v>
+      <c r="A7" s="4">
+        <v>1051</v>
       </c>
       <c r="B7">
         <v>3.8</v>
@@ -801,14 +607,14 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -816,8 +622,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
+      <c r="A8" s="4">
+        <v>3051</v>
       </c>
       <c r="B8">
         <v>2.2999999999999998</v>
@@ -829,14 +635,14 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>3051</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -844,8 +650,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
+      <c r="A9" s="5">
+        <v>6561</v>
       </c>
       <c r="B9">
         <v>3.16</v>
@@ -857,14 +663,14 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>6561</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -872,8 +678,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
+      <c r="A10" s="5">
+        <v>6562</v>
       </c>
       <c r="B10">
         <v>3.19</v>
@@ -885,14 +691,14 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>6562</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -900,8 +706,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
+      <c r="A11" s="5">
+        <v>6831</v>
       </c>
       <c r="B11">
         <v>2.59</v>
@@ -913,14 +719,14 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>6831</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -928,8 +734,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
+      <c r="A12" s="5">
+        <v>6940</v>
       </c>
       <c r="B12">
         <v>3.53</v>
@@ -941,14 +747,14 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>6940</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
@@ -956,7 +762,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>9041</v>
       </c>
       <c r="B13">
@@ -969,14 +775,14 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>9041</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
@@ -984,7 +790,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>9042</v>
       </c>
       <c r="B14">
@@ -997,14 +803,14 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>9042</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
@@ -1012,8 +818,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
+      <c r="A15" s="5">
+        <v>9181</v>
       </c>
       <c r="B15">
         <v>2.2599999999999998</v>
@@ -1025,14 +831,14 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>9181</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
@@ -1040,7 +846,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>9340</v>
       </c>
       <c r="B16">
@@ -1053,14 +859,14 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>9340</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
@@ -1068,7 +874,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>9405</v>
       </c>
       <c r="B17">
@@ -1081,14 +887,14 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>9405</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
@@ -1096,7 +902,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>9423</v>
       </c>
       <c r="B18">
@@ -1109,14 +915,14 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>9423</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
@@ -1124,7 +930,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>9599</v>
       </c>
       <c r="B19">
@@ -1137,14 +943,14 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>9599</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
@@ -1152,7 +958,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>9905</v>
       </c>
       <c r="B20">
@@ -1165,14 +971,14 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>9905</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
@@ -1180,7 +986,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>9920</v>
       </c>
       <c r="B21">
@@ -1193,14 +999,14 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>9920</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
@@ -1208,8 +1014,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
+      <c r="A22" s="4">
+        <v>226</v>
       </c>
       <c r="B22">
         <v>2.81</v>
@@ -1221,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>AVERAGE(B22:B41)</f>
@@ -1232,14 +1038,14 @@
         <v>0.67504073951132604</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
@@ -1247,8 +1053,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
+      <c r="A23" s="4">
+        <v>230</v>
       </c>
       <c r="B23">
         <v>2.86</v>
@@ -1260,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f>AVERAGE(C22:C41)</f>
@@ -1271,14 +1077,14 @@
         <v>0.30863707182589573</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
@@ -1286,8 +1092,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
+      <c r="A24" s="4">
+        <v>246</v>
       </c>
       <c r="B24">
         <v>2.9</v>
@@ -1299,14 +1105,14 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
@@ -1314,8 +1120,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
+      <c r="A25" s="4">
+        <v>253</v>
       </c>
       <c r="B25">
         <v>3.96</v>
@@ -1327,14 +1133,14 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
@@ -1342,8 +1148,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
+      <c r="A26" s="4">
+        <v>1301</v>
       </c>
       <c r="B26">
         <v>3.7</v>
@@ -1355,14 +1161,14 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>1301</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
@@ -1370,8 +1176,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
+      <c r="A27" s="4">
+        <v>2800</v>
       </c>
       <c r="B27">
         <v>1.78</v>
@@ -1383,14 +1189,14 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
@@ -1398,8 +1204,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
+      <c r="A28" s="4">
+        <v>3061</v>
       </c>
       <c r="B28">
         <v>2.3199999999999998</v>
@@ -1411,14 +1217,14 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>3061</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
@@ -1426,8 +1232,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
+      <c r="A29" s="4">
+        <v>3180</v>
       </c>
       <c r="B29">
         <v>1.92</v>
@@ -1439,14 +1245,14 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>3180</v>
       </c>
       <c r="K29" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
@@ -1454,8 +1260,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
+      <c r="A30" s="5">
+        <v>3220</v>
       </c>
       <c r="B30">
         <v>2.4900000000000002</v>
@@ -1467,14 +1273,14 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>3220</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
@@ -1482,8 +1288,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>68</v>
+      <c r="A31" s="5">
+        <v>3225</v>
       </c>
       <c r="B31">
         <v>1.82</v>
@@ -1495,14 +1301,14 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>3225</v>
       </c>
       <c r="K31" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
@@ -1510,8 +1316,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
+      <c r="A32" s="5">
+        <v>3230</v>
       </c>
       <c r="B32">
         <v>2.02</v>
@@ -1523,14 +1329,14 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>3230</v>
       </c>
       <c r="K32" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
@@ -1538,8 +1344,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
+      <c r="A33" s="5">
+        <v>6244</v>
       </c>
       <c r="B33">
         <v>3.09</v>
@@ -1551,14 +1357,14 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>6244</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
@@ -1566,8 +1372,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>50</v>
+      <c r="A34" s="5">
+        <v>6410</v>
       </c>
       <c r="B34">
         <v>3.49</v>
@@ -1579,14 +1385,14 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>6410</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
@@ -1594,8 +1400,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
+      <c r="A35" s="5">
+        <v>6555</v>
       </c>
       <c r="B35">
         <v>3.33</v>
@@ -1607,14 +1413,14 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>6555</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
@@ -1622,8 +1428,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>57</v>
+      <c r="A36" s="5">
+        <v>6836</v>
       </c>
       <c r="B36">
         <v>3.46</v>
@@ -1635,14 +1441,14 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>6836</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
@@ -1650,7 +1456,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>9043</v>
       </c>
       <c r="B37">
@@ -1663,14 +1469,14 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>9043</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
@@ -1678,7 +1484,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>9140</v>
       </c>
       <c r="B38">
@@ -1691,14 +1497,14 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>9140</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
@@ -1706,7 +1512,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>9300</v>
       </c>
       <c r="B39">
@@ -1719,14 +1525,14 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
@@ -1734,7 +1540,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>9326</v>
       </c>
       <c r="B40">
@@ -1747,14 +1553,14 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>9326</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
@@ -1762,7 +1568,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>9403</v>
       </c>
       <c r="B41">
@@ -1775,14 +1581,14 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>9403</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
@@ -1790,8 +1596,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
+      <c r="A42" s="4">
+        <v>210</v>
       </c>
       <c r="B42">
         <v>2.59</v>
@@ -1803,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <f>AVERAGE(B42:B61)</f>
@@ -1814,14 +1620,14 @@
         <v>0.59871331334700029</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
@@ -1829,8 +1635,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>11</v>
+      <c r="A43" s="4">
+        <v>225</v>
       </c>
       <c r="B43">
         <v>2.74</v>
@@ -1842,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <f>AVERAGE(C42:C61)</f>
@@ -1853,14 +1659,14 @@
         <v>0.33341297294243932</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="K43" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
@@ -1868,8 +1674,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>14</v>
+      <c r="A44" s="4">
+        <v>228</v>
       </c>
       <c r="B44">
         <v>2.82</v>
@@ -1881,14 +1687,14 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="K44" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
@@ -1896,8 +1702,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>19</v>
+      <c r="A45" s="4">
+        <v>251</v>
       </c>
       <c r="B45">
         <v>2.54</v>
@@ -1909,14 +1715,14 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
@@ -1924,8 +1730,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>20</v>
+      <c r="A46" s="4">
+        <v>252</v>
       </c>
       <c r="B46">
         <v>2.21</v>
@@ -1937,14 +1743,14 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
@@ -1952,8 +1758,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>39</v>
+      <c r="A47" s="4">
+        <v>3185</v>
       </c>
       <c r="B47">
         <v>2.81</v>
@@ -1965,14 +1771,14 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>3185</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
@@ -1980,8 +1786,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
+      <c r="A48" s="5">
+        <v>3280</v>
       </c>
       <c r="B48">
         <v>3.72</v>
@@ -1993,14 +1799,14 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>3280</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
@@ -2008,8 +1814,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
+      <c r="A49" s="5">
+        <v>6190</v>
       </c>
       <c r="B49">
         <v>3.57</v>
@@ -2021,14 +1827,14 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-      <c r="J49" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>6190</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
@@ -2036,8 +1842,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
+      <c r="A50" s="5">
+        <v>6825</v>
       </c>
       <c r="B50">
         <v>2.81</v>
@@ -2049,14 +1855,14 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>6825</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
@@ -2064,8 +1870,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
+      <c r="A51" s="5">
+        <v>6838</v>
       </c>
       <c r="B51">
         <v>2.4500000000000002</v>
@@ -2077,14 +1883,14 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>6838</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
@@ -2092,8 +1898,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>59</v>
+      <c r="A52" s="5">
+        <v>8230</v>
       </c>
       <c r="B52">
         <v>2.95</v>
@@ -2105,14 +1911,14 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-      <c r="J52" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>8230</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
@@ -2120,8 +1926,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
+      <c r="A53" s="5">
+        <v>8231</v>
       </c>
       <c r="B53">
         <v>3.77</v>
@@ -2133,14 +1939,14 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>8231</v>
       </c>
       <c r="K53" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
@@ -2148,7 +1954,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>9040</v>
       </c>
       <c r="B54">
@@ -2161,14 +1967,14 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
         <v>9040</v>
       </c>
       <c r="K54" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +1982,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="5">
         <v>9120</v>
       </c>
       <c r="B55">
@@ -2189,14 +1995,14 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>9120</v>
       </c>
       <c r="K55" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
@@ -2204,7 +2010,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="5">
         <v>9145</v>
       </c>
       <c r="B56">
@@ -2217,14 +2023,14 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
         <v>9145</v>
       </c>
       <c r="K56" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="1"/>
@@ -2232,7 +2038,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="5">
         <v>9160</v>
       </c>
       <c r="B57">
@@ -2245,14 +2051,14 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
       <c r="K57" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="1"/>
@@ -2260,8 +2066,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>63</v>
+      <c r="A58" s="5">
+        <v>9182</v>
       </c>
       <c r="B58">
         <v>3.52</v>
@@ -2273,14 +2079,14 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
-      </c>
-      <c r="J58" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
         <v>9182</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="1"/>
@@ -2288,8 +2094,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>66</v>
+      <c r="A59" s="5">
+        <v>9185</v>
       </c>
       <c r="B59">
         <v>1.97</v>
@@ -2301,14 +2107,14 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
-      </c>
-      <c r="J59" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
         <v>9185</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
@@ -2316,7 +2122,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="5">
         <v>9254</v>
       </c>
       <c r="B60">
@@ -2329,14 +2135,14 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
         <v>9254</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="1"/>
@@ -2344,7 +2150,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>9420</v>
       </c>
       <c r="B61">
@@ -2357,14 +2163,14 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
         <v>9420</v>
       </c>
       <c r="K61" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="1"/>
@@ -2372,8 +2178,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>5</v>
+      <c r="A62" s="4">
+        <v>208</v>
       </c>
       <c r="B62">
         <v>2.67</v>
@@ -2385,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>AVERAGE(B62:B81)</f>
@@ -2396,14 +2202,14 @@
         <v>0.52075324998353956</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
-      </c>
-      <c r="J62" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="K62" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="1"/>
@@ -2411,8 +2217,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>6</v>
+      <c r="A63" s="4">
+        <v>218</v>
       </c>
       <c r="B63">
         <v>2.86</v>
@@ -2424,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <f>AVERAGE(C62:C81)</f>
@@ -2435,14 +2241,14 @@
         <v>0.35761490608283036</v>
       </c>
       <c r="I63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J63" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
       <c r="K63" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
@@ -2450,8 +2256,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>17</v>
+      <c r="A64" s="4">
+        <v>245</v>
       </c>
       <c r="B64">
         <v>2.57</v>
@@ -2463,14 +2269,14 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
-      </c>
-      <c r="J64" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="K64" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
@@ -2478,8 +2284,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>22</v>
+      <c r="A65" s="4">
+        <v>254</v>
       </c>
       <c r="B65">
         <v>2.64</v>
@@ -2491,14 +2297,14 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="K65" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
@@ -2506,7 +2312,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>2703</v>
       </c>
       <c r="B66">
@@ -2519,14 +2325,14 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
         <v>2703</v>
       </c>
       <c r="K66" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
@@ -2534,8 +2340,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>29</v>
+      <c r="A67" s="4">
+        <v>2981</v>
       </c>
       <c r="B67">
         <v>2.76</v>
@@ -2547,14 +2353,14 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J67" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2">
         <f t="shared" ref="J67:J101" si="2">A67</f>
         <v>2981</v>
       </c>
       <c r="K67" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L101" si="3">I67&amp;J67&amp;K67</f>
@@ -2562,8 +2368,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>36</v>
+      <c r="A68" s="4">
+        <v>3160</v>
       </c>
       <c r="B68">
         <v>2.63</v>
@@ -2575,14 +2381,14 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
-      </c>
-      <c r="J68" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
         <f t="shared" si="2"/>
         <v>3160</v>
       </c>
       <c r="K68" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="3"/>
@@ -2590,8 +2396,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>38</v>
+      <c r="A69" s="4">
+        <v>3181</v>
       </c>
       <c r="B69">
         <v>2.2999999999999998</v>
@@ -2603,14 +2409,14 @@
         <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>73</v>
-      </c>
-      <c r="J69" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
         <f t="shared" si="2"/>
         <v>3181</v>
       </c>
       <c r="K69" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="3"/>
@@ -2618,8 +2424,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>40</v>
+      <c r="A70" s="5">
+        <v>3215</v>
       </c>
       <c r="B70">
         <v>2.5099999999999998</v>
@@ -2631,14 +2437,14 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>73</v>
-      </c>
-      <c r="J70" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
         <f t="shared" si="2"/>
         <v>3215</v>
       </c>
       <c r="K70" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="3"/>
@@ -2646,8 +2452,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>44</v>
+      <c r="A71" s="5">
+        <v>3301</v>
       </c>
       <c r="B71">
         <v>1.8</v>
@@ -2659,14 +2465,14 @@
         <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2">
         <f t="shared" si="2"/>
         <v>3301</v>
       </c>
       <c r="K71" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="3"/>
@@ -2674,8 +2480,8 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>46</v>
+      <c r="A72" s="5">
+        <v>6020</v>
       </c>
       <c r="B72">
         <v>3.41</v>
@@ -2687,14 +2493,14 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J72" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J72" s="2">
         <f t="shared" si="2"/>
         <v>6020</v>
       </c>
       <c r="K72" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="3"/>
@@ -2702,8 +2508,8 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>48</v>
+      <c r="A73" s="5">
+        <v>6242</v>
       </c>
       <c r="B73">
         <v>2.69</v>
@@ -2715,14 +2521,14 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>73</v>
-      </c>
-      <c r="J73" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J73" s="2">
         <f t="shared" si="2"/>
         <v>6242</v>
       </c>
       <c r="K73" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="3"/>
@@ -2730,7 +2536,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>9031</v>
       </c>
       <c r="B74">
@@ -2743,14 +2549,14 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="2"/>
         <v>9031</v>
       </c>
       <c r="K74" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="3"/>
@@ -2758,8 +2564,8 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>65</v>
+      <c r="A75" s="5">
+        <v>9184</v>
       </c>
       <c r="B75">
         <v>2.4700000000000002</v>
@@ -2771,14 +2577,14 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J75" s="2">
         <f t="shared" si="2"/>
         <v>9184</v>
       </c>
       <c r="K75" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="3"/>
@@ -2786,8 +2592,8 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>64</v>
+      <c r="A76" s="5">
+        <v>9230</v>
       </c>
       <c r="B76">
         <v>3.89</v>
@@ -2799,14 +2605,14 @@
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J76" s="2">
         <f t="shared" si="2"/>
         <v>9230</v>
       </c>
       <c r="K76" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="3"/>
@@ -2814,7 +2620,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="5">
         <v>9253</v>
       </c>
       <c r="B77">
@@ -2827,14 +2633,14 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="2"/>
         <v>9253</v>
       </c>
       <c r="K77" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="3"/>
@@ -2842,7 +2648,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="5">
         <v>9373</v>
       </c>
       <c r="B78">
@@ -2855,14 +2661,14 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="2"/>
         <v>9373</v>
       </c>
       <c r="K78" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="3"/>
@@ -2870,7 +2676,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="5">
         <v>9400</v>
       </c>
       <c r="B79">
@@ -2883,14 +2689,14 @@
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="2"/>
         <v>9400</v>
       </c>
       <c r="K79" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="3"/>
@@ -2898,7 +2704,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="5">
         <v>9424</v>
       </c>
       <c r="B80">
@@ -2911,14 +2717,14 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="2"/>
         <v>9424</v>
       </c>
       <c r="K80" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="3"/>
@@ -2926,7 +2732,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="7">
         <v>9800</v>
       </c>
       <c r="B81">
@@ -2939,14 +2745,14 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="2"/>
         <v>9800</v>
       </c>
       <c r="K81" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="3"/>
@@ -2954,8 +2760,8 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>10</v>
+      <c r="A82" s="4">
+        <v>223</v>
       </c>
       <c r="B82">
         <v>3.11</v>
@@ -2967,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <f>AVERAGE(B82:B101)</f>
@@ -2978,14 +2784,14 @@
         <v>0.81935725772673063</v>
       </c>
       <c r="I82" t="s">
-        <v>73</v>
-      </c>
-      <c r="J82" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2">
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="K82" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="3"/>
@@ -2993,8 +2799,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>13</v>
+      <c r="A83" s="4">
+        <v>227</v>
       </c>
       <c r="B83">
         <v>2.46</v>
@@ -3006,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <f>AVERAGE(C82:C101)</f>
@@ -3017,14 +2823,14 @@
         <v>0.43640728200784373</v>
       </c>
       <c r="I83" t="s">
-        <v>73</v>
-      </c>
-      <c r="J83" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J83" s="2">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="K83" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="3"/>
@@ -3032,8 +2838,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>24</v>
+      <c r="A84" s="4">
+        <v>326</v>
       </c>
       <c r="B84">
         <v>2.2799999999999998</v>
@@ -3045,14 +2851,14 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>73</v>
-      </c>
-      <c r="J84" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J84" s="2">
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
       <c r="K84" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="3"/>
@@ -3060,8 +2866,8 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>26</v>
+      <c r="A85" s="4">
+        <v>1111</v>
       </c>
       <c r="B85">
         <v>3.25</v>
@@ -3073,14 +2879,14 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>73</v>
-      </c>
-      <c r="J85" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J85" s="2">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="K85" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="3"/>
@@ -3088,8 +2894,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>30</v>
+      <c r="A86" s="4">
+        <v>3016</v>
       </c>
       <c r="B86">
         <v>1.9</v>
@@ -3101,14 +2907,14 @@
         <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>73</v>
-      </c>
-      <c r="J86" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J86" s="2">
         <f t="shared" si="2"/>
         <v>3016</v>
       </c>
       <c r="K86" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L86" t="str">
         <f t="shared" si="3"/>
@@ -3116,8 +2922,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>31</v>
+      <c r="A87" s="4">
+        <v>3017</v>
       </c>
       <c r="B87">
         <v>2.4500000000000002</v>
@@ -3129,14 +2935,14 @@
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>73</v>
-      </c>
-      <c r="J87" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
         <f t="shared" si="2"/>
         <v>3017</v>
       </c>
       <c r="K87" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L87" t="str">
         <f t="shared" si="3"/>
@@ -3144,8 +2950,8 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>32</v>
+      <c r="A88" s="4">
+        <v>3022</v>
       </c>
       <c r="B88">
         <v>3.7</v>
@@ -3157,14 +2963,14 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>73</v>
-      </c>
-      <c r="J88" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J88" s="2">
         <f t="shared" si="2"/>
         <v>3022</v>
       </c>
       <c r="K88" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L88" t="str">
         <f t="shared" si="3"/>
@@ -3172,8 +2978,8 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>35</v>
+      <c r="A89" s="4">
+        <v>3101</v>
       </c>
       <c r="B89">
         <v>1.91</v>
@@ -3185,14 +2991,14 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>73</v>
-      </c>
-      <c r="J89" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J89" s="2">
         <f t="shared" si="2"/>
         <v>3101</v>
       </c>
       <c r="K89" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="3"/>
@@ -3200,8 +3006,8 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>45</v>
+      <c r="A90" s="5">
+        <v>3350</v>
       </c>
       <c r="B90">
         <v>1.88</v>
@@ -3213,14 +3019,14 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>73</v>
-      </c>
-      <c r="J90" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J90" s="2">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
       <c r="K90" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="3"/>
@@ -3228,8 +3034,8 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>54</v>
+      <c r="A91" s="5">
+        <v>6571</v>
       </c>
       <c r="B91">
         <v>2.85</v>
@@ -3241,14 +3047,14 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>73</v>
-      </c>
-      <c r="J91" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2">
         <f t="shared" si="2"/>
         <v>6571</v>
       </c>
       <c r="K91" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="3"/>
@@ -3256,8 +3062,8 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>61</v>
+      <c r="A92" s="5">
+        <v>9180</v>
       </c>
       <c r="B92">
         <v>2.99</v>
@@ -3269,14 +3075,14 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>73</v>
-      </c>
-      <c r="J92" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J92" s="2">
         <f t="shared" si="2"/>
         <v>9180</v>
       </c>
       <c r="K92" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="3"/>
@@ -3284,7 +3090,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="5">
         <v>9295</v>
       </c>
       <c r="B93">
@@ -3297,14 +3103,14 @@
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="2"/>
         <v>9295</v>
       </c>
       <c r="K93" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="3"/>
@@ -3312,7 +3118,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="5">
         <v>9332</v>
       </c>
       <c r="B94">
@@ -3325,14 +3131,14 @@
         <v>5</v>
       </c>
       <c r="I94" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="2"/>
         <v>9332</v>
       </c>
       <c r="K94" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="3"/>
@@ -3340,7 +3146,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="5">
         <v>9402</v>
       </c>
       <c r="B95">
@@ -3353,14 +3159,14 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="2"/>
         <v>9402</v>
       </c>
       <c r="K95" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="3"/>
@@ -3368,7 +3174,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="5">
         <v>9409</v>
       </c>
       <c r="B96">
@@ -3381,14 +3187,14 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="2"/>
         <v>9409</v>
       </c>
       <c r="K96" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L96" t="str">
         <f t="shared" si="3"/>
@@ -3396,7 +3202,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="5">
         <v>9411</v>
       </c>
       <c r="B97">
@@ -3409,14 +3215,14 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="2"/>
         <v>9411</v>
       </c>
       <c r="K97" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="3"/>
@@ -3424,7 +3230,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="5">
         <v>9421</v>
       </c>
       <c r="B98">
@@ -3437,14 +3243,14 @@
         <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="2"/>
         <v>9421</v>
       </c>
       <c r="K98" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="3"/>
@@ -3452,7 +3258,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="5">
         <v>9425</v>
       </c>
       <c r="B99">
@@ -3465,14 +3271,14 @@
         <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="2"/>
         <v>9425</v>
       </c>
       <c r="K99" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="3"/>
@@ -3480,8 +3286,8 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>67</v>
+      <c r="A100" s="5">
+        <v>9570</v>
       </c>
       <c r="B100">
         <v>1.68</v>
@@ -3493,14 +3299,14 @@
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>73</v>
-      </c>
-      <c r="J100" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J100" s="2">
         <f t="shared" si="2"/>
         <v>9570</v>
       </c>
       <c r="K100" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="3"/>
@@ -3508,7 +3314,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="7">
         <v>9904</v>
       </c>
       <c r="B101">
@@ -3521,14 +3327,14 @@
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="2"/>
         <v>9904</v>
       </c>
       <c r="K101" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="3"/>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/negative.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,13 +433,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="C2">
-        <v>5.98</v>
+        <v>5.41</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -449,36 +449,36 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:B21)</f>
-        <v>2.7664999999999993</v>
+        <v>2.835</v>
       </c>
       <c r="G2">
         <f>_xlfn.STDEV.S(B2:B21)</f>
-        <v>0.47897121108959811</v>
+        <v>0.56629451143747378</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2">
         <f>A2</f>
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="str">
         <f>I2&amp;J2&amp;K2</f>
-        <v>Stimuli/219.jpg</v>
+        <v>Stimuli/225.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B3">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="C3">
-        <v>5.58</v>
+        <v>6.36</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -488,36 +488,36 @@
       </c>
       <c r="F3">
         <f>AVERAGE(C2:C21)</f>
-        <v>5.58</v>
+        <v>5.6180000000000003</v>
       </c>
       <c r="G3">
         <f>_xlfn.STDEV.S(C2:C21)</f>
-        <v>0.40450099212681673</v>
+        <v>0.33724268943736557</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="0">A3</f>
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" si="1">I3&amp;J3&amp;K3</f>
-        <v>Stimuli/222.jpg</v>
+        <v>Stimuli/230.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B4">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="C4">
-        <v>6.33</v>
+        <v>5.74</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -527,25 +527,25 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/238.jpg</v>
+        <v>Stimuli/255.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="B5">
-        <v>2.64</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C5">
-        <v>5.74</v>
+        <v>5.6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -555,25 +555,25 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/255.jpg</v>
+        <v>Stimuli/327.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>327</v>
+        <v>1111</v>
       </c>
       <c r="B6">
-        <v>2.2799999999999998</v>
+        <v>3.25</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -583,25 +583,25 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>1111</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/327.jpg</v>
+        <v>Stimuli/1111.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>1051</v>
+        <v>3017</v>
       </c>
       <c r="B7">
-        <v>3.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C7">
-        <v>5.95</v>
+        <v>5.34</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -611,25 +611,25 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1051</v>
+        <v>3017</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/1051.jpg</v>
+        <v>Stimuli/3017.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>3051</v>
+        <v>3022</v>
       </c>
       <c r="B8">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="C8">
-        <v>5.62</v>
+        <v>5.88</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -639,25 +639,25 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>3051</v>
+        <v>3022</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3051.jpg</v>
+        <v>Stimuli/3022.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>6561</v>
+      <c r="A9" s="4">
+        <v>3180</v>
       </c>
       <c r="B9">
-        <v>3.16</v>
+        <v>1.92</v>
       </c>
       <c r="C9">
-        <v>4.99</v>
+        <v>5.77</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -667,25 +667,25 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>6561</v>
+        <v>3180</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6561.jpg</v>
+        <v>Stimuli/3180.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>6562</v>
+        <v>3280</v>
       </c>
       <c r="B10">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="C10">
-        <v>5.08</v>
+        <v>5.39</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -695,25 +695,25 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6562</v>
+        <v>3280</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6562.jpg</v>
+        <v>Stimuli/3280.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>6831</v>
+        <v>6190</v>
       </c>
       <c r="B11">
-        <v>2.59</v>
+        <v>3.57</v>
       </c>
       <c r="C11">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -723,25 +723,25 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>6831</v>
+        <v>6190</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6831.jpg</v>
+        <v>Stimuli/6190.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>6940</v>
+        <v>6244</v>
       </c>
       <c r="B12">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="C12">
-        <v>5.35</v>
+        <v>5.68</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -751,25 +751,25 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>6940</v>
+        <v>6244</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6940.jpg</v>
+        <v>Stimuli/6244.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>9041</v>
+        <v>6836</v>
       </c>
       <c r="B13">
-        <v>2.98</v>
+        <v>3.46</v>
       </c>
       <c r="C13">
-        <v>4.6399999999999997</v>
+        <v>5.47</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -779,25 +779,25 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>9041</v>
+        <v>6836</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9041.jpg</v>
+        <v>Stimuli/6836.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>9042</v>
+        <v>9180</v>
       </c>
       <c r="B14">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="C14">
-        <v>5.78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -807,25 +807,25 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>9042</v>
+        <v>9180</v>
       </c>
       <c r="K14" t="s">
         <v>4</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9042.jpg</v>
+        <v>Stimuli/9180.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>9181</v>
+        <v>9182</v>
       </c>
       <c r="B15">
-        <v>2.2599999999999998</v>
+        <v>3.52</v>
       </c>
       <c r="C15">
-        <v>5.39</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>9181</v>
+        <v>9182</v>
       </c>
       <c r="K15" t="s">
         <v>4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9181.jpg</v>
+        <v>Stimuli/9182.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>9340</v>
+        <v>9253</v>
       </c>
       <c r="B16">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>5.16</v>
+        <v>5.53</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -863,25 +863,25 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>9340</v>
+        <v>9253</v>
       </c>
       <c r="K16" t="s">
         <v>4</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9340.jpg</v>
+        <v>Stimuli/9253.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>9405</v>
+        <v>9300</v>
       </c>
       <c r="B17">
-        <v>1.83</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C17">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -891,25 +891,25 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>9405</v>
+        <v>9300</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9405.jpg</v>
+        <v>Stimuli/9300.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>9423</v>
+        <v>9326</v>
       </c>
       <c r="B18">
-        <v>2.61</v>
+        <v>2.21</v>
       </c>
       <c r="C18">
-        <v>5.66</v>
+        <v>5.89</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -919,25 +919,25 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>9423</v>
+        <v>9326</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9423.jpg</v>
+        <v>Stimuli/9326.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>9599</v>
+      <c r="A19" s="5">
+        <v>9424</v>
       </c>
       <c r="B19">
-        <v>3.16</v>
+        <v>2.87</v>
       </c>
       <c r="C19">
-        <v>5.43</v>
+        <v>5.78</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -947,25 +947,25 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>9599</v>
+        <v>9424</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9599.jpg</v>
+        <v>Stimuli/9424.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>9905</v>
+      <c r="A20" s="5">
+        <v>9425</v>
       </c>
       <c r="B20">
-        <v>2.5499999999999998</v>
+        <v>2.67</v>
       </c>
       <c r="C20">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -975,14 +975,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>9905</v>
+        <v>9425</v>
       </c>
       <c r="K20" t="s">
         <v>4</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9905.jpg</v>
+        <v>Stimuli/9425.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B22">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="C22">
-        <v>5.5</v>
+        <v>6.21</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1031,36 +1031,36 @@
       </c>
       <c r="F22">
         <f>AVERAGE(B22:B41)</f>
-        <v>2.7320000000000002</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="G22">
         <f>_xlfn.STDEV.S(B22:B41)</f>
-        <v>0.67504073951132604</v>
+        <v>0.45963830173414616</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
         <v>4</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/226.jpg</v>
+        <v>Stimuli/210.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B23">
         <v>2.86</v>
       </c>
       <c r="C23">
-        <v>6.36</v>
+        <v>5.52</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1070,36 +1070,36 @@
       </c>
       <c r="F23">
         <f>AVERAGE(C22:C41)</f>
-        <v>5.6360000000000001</v>
+        <v>5.5840000000000005</v>
       </c>
       <c r="G23">
         <f>_xlfn.STDEV.S(C22:C41)</f>
-        <v>0.30863707182589573</v>
+        <v>0.34723570032320611</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
         <v>4</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/230.jpg</v>
+        <v>Stimuli/218.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B24">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C24">
-        <v>5.65</v>
+        <v>5.58</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1109,25 +1109,25 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/246.jpg</v>
+        <v>Stimuli/222.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B25">
-        <v>3.96</v>
+        <v>2.82</v>
       </c>
       <c r="C25">
-        <v>4.9000000000000004</v>
+        <v>5.78</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1137,25 +1137,25 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
         <v>4</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/253.jpg</v>
+        <v>Stimuli/228.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>1301</v>
+        <v>246</v>
       </c>
       <c r="B26">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="C26">
-        <v>5.77</v>
+        <v>5.65</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1165,25 +1165,25 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1301</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
         <v>4</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/1301.jpg</v>
+        <v>Stimuli/246.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>2800</v>
+        <v>251</v>
       </c>
       <c r="B27">
-        <v>1.78</v>
+        <v>2.54</v>
       </c>
       <c r="C27">
-        <v>5.49</v>
+        <v>5.75</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1193,25 +1193,25 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
         <v>4</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/2800.jpg</v>
+        <v>Stimuli/251.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>3061</v>
+      <c r="A28" s="5">
+        <v>2703</v>
       </c>
       <c r="B28">
-        <v>2.3199999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="C28">
-        <v>5.28</v>
+        <v>5.78</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1221,25 +1221,25 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3061</v>
+        <v>2703</v>
       </c>
       <c r="K28" t="s">
         <v>4</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3061.jpg</v>
+        <v>Stimuli/2703.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>3180</v>
+        <v>3051</v>
       </c>
       <c r="B29">
-        <v>1.92</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C29">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1249,25 +1249,25 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>3180</v>
+        <v>3051</v>
       </c>
       <c r="K29" t="s">
         <v>4</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3180.jpg</v>
+        <v>Stimuli/3051.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>3220</v>
+      <c r="A30" s="4">
+        <v>3160</v>
       </c>
       <c r="B30">
-        <v>2.4900000000000002</v>
+        <v>2.63</v>
       </c>
       <c r="C30">
-        <v>5.52</v>
+        <v>5.35</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1277,25 +1277,25 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>3220</v>
+        <v>3160</v>
       </c>
       <c r="K30" t="s">
         <v>4</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3220.jpg</v>
+        <v>Stimuli/3160.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>3225</v>
+      <c r="A31" s="4">
+        <v>3185</v>
       </c>
       <c r="B31">
-        <v>1.82</v>
+        <v>2.81</v>
       </c>
       <c r="C31">
-        <v>5.95</v>
+        <v>5.48</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1305,25 +1305,25 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>3225</v>
+        <v>3185</v>
       </c>
       <c r="K31" t="s">
         <v>4</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3225.jpg</v>
+        <v>Stimuli/3185.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>3230</v>
+        <v>3301</v>
       </c>
       <c r="B32">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="C32">
-        <v>5.41</v>
+        <v>5.21</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1333,25 +1333,25 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>3230</v>
+        <v>3301</v>
       </c>
       <c r="K32" t="s">
         <v>4</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3230.jpg</v>
+        <v>Stimuli/3301.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>6244</v>
+        <v>6562</v>
       </c>
       <c r="B33">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="C33">
-        <v>5.68</v>
+        <v>5.08</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1361,25 +1361,25 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>6244</v>
+        <v>6562</v>
       </c>
       <c r="K33" t="s">
         <v>4</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6244.jpg</v>
+        <v>Stimuli/6562.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>6410</v>
+        <v>9031</v>
       </c>
       <c r="B34">
-        <v>3.49</v>
+        <v>3.01</v>
       </c>
       <c r="C34">
-        <v>5.89</v>
+        <v>4.82</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1389,25 +1389,25 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>6410</v>
+        <v>9031</v>
       </c>
       <c r="K34" t="s">
         <v>4</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6410.jpg</v>
+        <v>Stimuli/9031.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>6555</v>
+        <v>9040</v>
       </c>
       <c r="B35">
-        <v>3.33</v>
+        <v>1.67</v>
       </c>
       <c r="C35">
-        <v>5.69</v>
+        <v>5.82</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1417,25 +1417,25 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>6555</v>
+        <v>9040</v>
       </c>
       <c r="K35" t="s">
         <v>4</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6555.jpg</v>
+        <v>Stimuli/9040.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>6836</v>
+        <v>9042</v>
       </c>
       <c r="B36">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="C36">
-        <v>5.47</v>
+        <v>5.78</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1445,14 +1445,14 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>6836</v>
+        <v>9042</v>
       </c>
       <c r="K36" t="s">
         <v>4</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6836.jpg</v>
+        <v>Stimuli/9042.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1485,13 +1485,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>9140</v>
+        <v>9145</v>
       </c>
       <c r="B38">
-        <v>2.19</v>
+        <v>3.2</v>
       </c>
       <c r="C38">
-        <v>5.38</v>
+        <v>5.05</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1501,25 +1501,25 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>9140</v>
+        <v>9145</v>
       </c>
       <c r="K38" t="s">
         <v>4</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9140.jpg</v>
+        <v>Stimuli/9145.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>9300</v>
+        <v>9160</v>
       </c>
       <c r="B39">
-        <v>2.2599999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1529,25 +1529,25 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>9160</v>
       </c>
       <c r="K39" t="s">
         <v>4</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9300.jpg</v>
+        <v>Stimuli/9160.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>9326</v>
+        <v>9184</v>
       </c>
       <c r="B40">
-        <v>2.21</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C40">
-        <v>5.89</v>
+        <v>5.75</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1557,25 +1557,25 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>9326</v>
+        <v>9184</v>
       </c>
       <c r="K40" t="s">
         <v>4</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9326.jpg</v>
+        <v>Stimuli/9184.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>9403</v>
+      <c r="A41" s="7">
+        <v>9904</v>
       </c>
       <c r="B41">
-        <v>3.51</v>
+        <v>2.39</v>
       </c>
       <c r="C41">
-        <v>5.62</v>
+        <v>6.08</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1585,25 +1585,25 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>9403</v>
+        <v>9904</v>
       </c>
       <c r="K41" t="s">
         <v>4</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9403.jpg</v>
+        <v>Stimuli/9904.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B42">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="C42">
-        <v>6.21</v>
+        <v>5.82</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1613,36 +1613,36 @@
       </c>
       <c r="F42">
         <f>AVERAGE(B42:B61)</f>
-        <v>2.8055000000000008</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="G42">
         <f>_xlfn.STDEV.S(B42:B61)</f>
-        <v>0.59871331334700029</v>
+        <v>0.62178520576261831</v>
       </c>
       <c r="I42" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s">
         <v>4</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/210.jpg</v>
+        <v>Stimuli/208.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B43">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="C43">
-        <v>5.41</v>
+        <v>5.98</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1652,36 +1652,36 @@
       </c>
       <c r="F43">
         <f>AVERAGE(C42:C61)</f>
-        <v>5.6480000000000006</v>
+        <v>5.6019999999999994</v>
       </c>
       <c r="G43">
         <f>_xlfn.STDEV.S(C42:C61)</f>
-        <v>0.33341297294243932</v>
+        <v>0.39140233708255268</v>
       </c>
       <c r="I43" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K43" t="s">
         <v>4</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/225.jpg</v>
+        <v>Stimuli/219.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B44">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="C44">
-        <v>5.78</v>
+        <v>5.5</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1691,25 +1691,25 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s">
         <v>4</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/228.jpg</v>
+        <v>Stimuli/226.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B45">
-        <v>2.54</v>
+        <v>3.96</v>
       </c>
       <c r="C45">
-        <v>5.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1719,25 +1719,25 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K45" t="s">
         <v>4</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/251.jpg</v>
+        <v>Stimuli/253.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B46">
-        <v>2.21</v>
+        <v>2.64</v>
       </c>
       <c r="C46">
-        <v>6.12</v>
+        <v>5.74</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1747,25 +1747,25 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/252.jpg</v>
+        <v>Stimuli/254.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>3185</v>
+        <v>326</v>
       </c>
       <c r="B47">
-        <v>2.81</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C47">
-        <v>5.48</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1775,25 +1775,25 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>3185</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3185.jpg</v>
+        <v>Stimuli/326.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>3280</v>
+      <c r="A48" s="4">
+        <v>1301</v>
       </c>
       <c r="B48">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="C48">
-        <v>5.39</v>
+        <v>5.77</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1803,25 +1803,25 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>3280</v>
+        <v>1301</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/3280.jpg</v>
+        <v>Stimuli/1301.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>6190</v>
+        <v>3350</v>
       </c>
       <c r="B49">
-        <v>3.57</v>
+        <v>1.88</v>
       </c>
       <c r="C49">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1831,25 +1831,25 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>6190</v>
+        <v>3350</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6190.jpg</v>
+        <v>Stimuli/3350.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>6825</v>
+        <v>6242</v>
       </c>
       <c r="B50">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="C50">
-        <v>5.36</v>
+        <v>5.43</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1859,25 +1859,25 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>6825</v>
+        <v>6242</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6825.jpg</v>
+        <v>Stimuli/6242.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>6838</v>
+        <v>6410</v>
       </c>
       <c r="B51">
-        <v>2.4500000000000002</v>
+        <v>3.49</v>
       </c>
       <c r="C51">
-        <v>5.8</v>
+        <v>5.89</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1887,25 +1887,25 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>6838</v>
+        <v>6410</v>
       </c>
       <c r="K51" t="s">
         <v>4</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/6838.jpg</v>
+        <v>Stimuli/6410.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>8230</v>
+        <v>6555</v>
       </c>
       <c r="B52">
-        <v>2.95</v>
+        <v>3.33</v>
       </c>
       <c r="C52">
-        <v>5.91</v>
+        <v>5.69</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1915,25 +1915,25 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>8230</v>
+        <v>6555</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/8230.jpg</v>
+        <v>Stimuli/6555.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>8231</v>
+        <v>6825</v>
       </c>
       <c r="B53">
-        <v>3.77</v>
+        <v>2.81</v>
       </c>
       <c r="C53">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1943,25 +1943,25 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>8231</v>
+        <v>6825</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/8231.jpg</v>
+        <v>Stimuli/6825.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>9040</v>
+        <v>6940</v>
       </c>
       <c r="B54">
-        <v>1.67</v>
+        <v>3.53</v>
       </c>
       <c r="C54">
-        <v>5.82</v>
+        <v>5.35</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1971,25 +1971,25 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>9040</v>
+        <v>6940</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9040.jpg</v>
+        <v>Stimuli/6940.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>9120</v>
+        <v>8230</v>
       </c>
       <c r="B55">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="C55">
-        <v>5.77</v>
+        <v>5.91</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1999,25 +1999,25 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>9120</v>
+        <v>8230</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9120.jpg</v>
+        <v>Stimuli/8230.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>9145</v>
+        <v>9041</v>
       </c>
       <c r="B56">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="C56">
-        <v>5.05</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2027,25 +2027,25 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>9145</v>
+        <v>9041</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9145.jpg</v>
+        <v>Stimuli/9041.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>9160</v>
+        <v>9140</v>
       </c>
       <c r="B57">
-        <v>3.23</v>
+        <v>2.19</v>
       </c>
       <c r="C57">
-        <v>5.87</v>
+        <v>5.38</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>9160</v>
+        <v>9140</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9160.jpg</v>
+        <v>Stimuli/9140.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>9182</v>
+        <v>9340</v>
       </c>
       <c r="B58">
-        <v>3.52</v>
+        <v>2.41</v>
       </c>
       <c r="C58">
-        <v>4.9800000000000004</v>
+        <v>5.16</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2083,25 +2083,25 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>9182</v>
+        <v>9340</v>
       </c>
       <c r="K58" t="s">
         <v>4</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9182.jpg</v>
+        <v>Stimuli/9340.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>9185</v>
+        <v>9409</v>
       </c>
       <c r="B59">
-        <v>1.97</v>
+        <v>3.34</v>
       </c>
       <c r="C59">
-        <v>5.65</v>
+        <v>5.61</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2111,25 +2111,25 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>9185</v>
+        <v>9409</v>
       </c>
       <c r="K59" t="s">
         <v>4</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9185.jpg</v>
+        <v>Stimuli/9409.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>9254</v>
+        <v>9570</v>
       </c>
       <c r="B60">
-        <v>2.0299999999999998</v>
+        <v>1.68</v>
       </c>
       <c r="C60">
-        <v>6.04</v>
+        <v>6.14</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -2139,25 +2139,25 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>9254</v>
+        <v>9570</v>
       </c>
       <c r="K60" t="s">
         <v>4</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9254.jpg</v>
+        <v>Stimuli/9570.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>9420</v>
+      <c r="A61" s="7">
+        <v>9800</v>
       </c>
       <c r="B61">
-        <v>2.31</v>
+        <v>2.04</v>
       </c>
       <c r="C61">
-        <v>5.69</v>
+        <v>6.05</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -2167,25 +2167,25 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>9420</v>
+        <v>9800</v>
       </c>
       <c r="K61" t="s">
         <v>4</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/9420.jpg</v>
+        <v>Stimuli/9800.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B62">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="C62">
-        <v>5.82</v>
+        <v>6.67</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -2195,36 +2195,36 @@
       </c>
       <c r="F62">
         <f>AVERAGE(B62:B81)</f>
-        <v>2.6455000000000002</v>
+        <v>2.6524999999999999</v>
       </c>
       <c r="G62">
         <f>_xlfn.STDEV.S(B62:B81)</f>
-        <v>0.52075324998353956</v>
+        <v>0.74977803733048631</v>
       </c>
       <c r="I62" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K62" t="s">
         <v>4</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/208.jpg</v>
+        <v>Stimuli/227.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="B63">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="C63">
-        <v>5.52</v>
+        <v>6.12</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -2234,36 +2234,36 @@
       </c>
       <c r="F63">
         <f>AVERAGE(C62:C81)</f>
-        <v>5.5840000000000005</v>
+        <v>5.6120000000000019</v>
       </c>
       <c r="G63">
         <f>_xlfn.STDEV.S(C62:C81)</f>
-        <v>0.35761490608283036</v>
+        <v>0.41139812961732286</v>
       </c>
       <c r="I63" t="s">
         <v>3</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="K63" t="s">
         <v>4</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/218.jpg</v>
+        <v>Stimuli/252.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>245</v>
+        <v>1051</v>
       </c>
       <c r="B64">
-        <v>2.57</v>
+        <v>3.8</v>
       </c>
       <c r="C64">
-        <v>6.08</v>
+        <v>5.95</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2273,25 +2273,25 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>1051</v>
       </c>
       <c r="K64" t="s">
         <v>4</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/245.jpg</v>
+        <v>Stimuli/1051.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>254</v>
+        <v>2800</v>
       </c>
       <c r="B65">
-        <v>2.64</v>
+        <v>1.78</v>
       </c>
       <c r="C65">
-        <v>5.74</v>
+        <v>5.49</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -2301,25 +2301,25 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>2800</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/254.jpg</v>
+        <v>Stimuli/2800.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>2703</v>
+      <c r="A66" s="4">
+        <v>3061</v>
       </c>
       <c r="B66">
-        <v>1.91</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C66">
-        <v>5.78</v>
+        <v>5.28</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2329,25 +2329,25 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>2703</v>
+        <v>3061</v>
       </c>
       <c r="K66" t="s">
         <v>4</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
-        <v>Stimuli/2703.jpg</v>
+        <v>Stimuli/3061.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>2981</v>
+      <c r="A67" s="5">
+        <v>3230</v>
       </c>
       <c r="B67">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="C67">
-        <v>5.97</v>
+        <v>5.41</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2357,25 +2357,25 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J101" si="2">A67</f>
-        <v>2981</v>
+        <v>3230</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L101" si="3">I67&amp;J67&amp;K67</f>
-        <v>Stimuli/2981.jpg</v>
+        <v>Stimuli/3230.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>3160</v>
+      <c r="A68" s="5">
+        <v>6561</v>
       </c>
       <c r="B68">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="C68">
-        <v>5.35</v>
+        <v>4.99</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -2385,25 +2385,25 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="2"/>
-        <v>3160</v>
+        <v>6561</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3160.jpg</v>
+        <v>Stimuli/6561.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>3181</v>
+      <c r="A69" s="5">
+        <v>6838</v>
       </c>
       <c r="B69">
-        <v>2.2999999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C69">
-        <v>5.0599999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -2413,25 +2413,25 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" si="2"/>
-        <v>3181</v>
+        <v>6838</v>
       </c>
       <c r="K69" t="s">
         <v>4</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3181.jpg</v>
+        <v>Stimuli/6838.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>3215</v>
+        <v>9120</v>
       </c>
       <c r="B70">
-        <v>2.5099999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="C70">
-        <v>5.44</v>
+        <v>5.77</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -2441,25 +2441,25 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="2"/>
-        <v>3215</v>
+        <v>9120</v>
       </c>
       <c r="K70" t="s">
         <v>4</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3215.jpg</v>
+        <v>Stimuli/9120.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>3301</v>
+        <v>9181</v>
       </c>
       <c r="B71">
-        <v>1.8</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C71">
-        <v>5.21</v>
+        <v>5.39</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -2469,25 +2469,25 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" si="2"/>
-        <v>3301</v>
+        <v>9181</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3301.jpg</v>
+        <v>Stimuli/9181.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>6020</v>
+        <v>9185</v>
       </c>
       <c r="B72">
-        <v>3.41</v>
+        <v>1.97</v>
       </c>
       <c r="C72">
-        <v>5.58</v>
+        <v>5.65</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -2497,25 +2497,25 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="2"/>
-        <v>6020</v>
+        <v>9185</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/6020.jpg</v>
+        <v>Stimuli/9185.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>6242</v>
+        <v>9230</v>
       </c>
       <c r="B73">
-        <v>2.69</v>
+        <v>3.89</v>
       </c>
       <c r="C73">
-        <v>5.43</v>
+        <v>5.77</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -2525,25 +2525,25 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" si="2"/>
-        <v>6242</v>
+        <v>9230</v>
       </c>
       <c r="K73" t="s">
         <v>4</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/6242.jpg</v>
+        <v>Stimuli/9230.jpg</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>9031</v>
+        <v>9254</v>
       </c>
       <c r="B74">
-        <v>3.01</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C74">
-        <v>4.82</v>
+        <v>6.04</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2553,25 +2553,25 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" si="2"/>
-        <v>9031</v>
+        <v>9254</v>
       </c>
       <c r="K74" t="s">
         <v>4</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9031.jpg</v>
+        <v>Stimuli/9254.jpg</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>9184</v>
+        <v>9295</v>
       </c>
       <c r="B75">
-        <v>2.4700000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="C75">
-        <v>5.75</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -2581,25 +2581,25 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="2"/>
-        <v>9184</v>
+        <v>9295</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9184.jpg</v>
+        <v>Stimuli/9295.jpg</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>9230</v>
+        <v>9332</v>
       </c>
       <c r="B76">
-        <v>3.89</v>
+        <v>2.25</v>
       </c>
       <c r="C76">
-        <v>5.77</v>
+        <v>5.34</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -2609,25 +2609,25 @@
       </c>
       <c r="J76" s="2">
         <f t="shared" si="2"/>
-        <v>9230</v>
+        <v>9332</v>
       </c>
       <c r="K76" t="s">
         <v>4</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9230.jpg</v>
+        <v>Stimuli/9332.jpg</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>9253</v>
+        <v>9411</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>4.63</v>
       </c>
       <c r="C77">
-        <v>5.53</v>
+        <v>5.37</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -2637,25 +2637,25 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="2"/>
-        <v>9253</v>
+        <v>9411</v>
       </c>
       <c r="K77" t="s">
         <v>4</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9253.jpg</v>
+        <v>Stimuli/9411.jpg</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>9373</v>
+        <v>9420</v>
       </c>
       <c r="B78">
-        <v>3.38</v>
+        <v>2.31</v>
       </c>
       <c r="C78">
-        <v>5.01</v>
+        <v>5.69</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -2665,25 +2665,25 @@
       </c>
       <c r="J78" s="2">
         <f t="shared" si="2"/>
-        <v>9373</v>
+        <v>9420</v>
       </c>
       <c r="K78" t="s">
         <v>4</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9373.jpg</v>
+        <v>Stimuli/9420.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>9400</v>
+        <v>9421</v>
       </c>
       <c r="B79">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="C79">
-        <v>5.99</v>
+        <v>5.04</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -2693,25 +2693,25 @@
       </c>
       <c r="J79" s="2">
         <f t="shared" si="2"/>
-        <v>9400</v>
+        <v>9421</v>
       </c>
       <c r="K79" t="s">
         <v>4</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9400.jpg</v>
+        <v>Stimuli/9421.jpg</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>9424</v>
+      <c r="A80" s="6">
+        <v>9599</v>
       </c>
       <c r="B80">
-        <v>2.87</v>
+        <v>3.16</v>
       </c>
       <c r="C80">
-        <v>5.78</v>
+        <v>5.43</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -2721,25 +2721,25 @@
       </c>
       <c r="J80" s="2">
         <f t="shared" si="2"/>
-        <v>9424</v>
+        <v>9599</v>
       </c>
       <c r="K80" t="s">
         <v>4</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9424.jpg</v>
+        <v>Stimuli/9599.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>9800</v>
+      <c r="A81" s="6">
+        <v>9905</v>
       </c>
       <c r="B81">
-        <v>2.04</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C81">
-        <v>6.05</v>
+        <v>5.93</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -2749,14 +2749,14 @@
       </c>
       <c r="J81" s="2">
         <f t="shared" si="2"/>
-        <v>9800</v>
+        <v>9905</v>
       </c>
       <c r="K81" t="s">
         <v>4</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9800.jpg</v>
+        <v>Stimuli/9905.jpg</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -2777,11 +2777,11 @@
       </c>
       <c r="F82">
         <f>AVERAGE(B82:B101)</f>
-        <v>2.7410000000000005</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="G82">
         <f>_xlfn.STDEV.S(B82:B101)</f>
-        <v>0.81935725772673063</v>
+        <v>0.69742307630908007</v>
       </c>
       <c r="I82" t="s">
         <v>3</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B83">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="C83">
-        <v>6.67</v>
+        <v>6.33</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2816,36 +2816,36 @@
       </c>
       <c r="F83">
         <f>AVERAGE(C82:C101)</f>
-        <v>5.5975000000000001</v>
+        <v>5.6294999999999993</v>
       </c>
       <c r="G83">
         <f>_xlfn.STDEV.S(C82:C101)</f>
-        <v>0.43640728200784373</v>
+        <v>0.36665594083195824</v>
       </c>
       <c r="I83" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K83" t="s">
         <v>4</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/227.jpg</v>
+        <v>Stimuli/238.jpg</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="B84">
-        <v>2.2799999999999998</v>
+        <v>2.57</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2855,25 +2855,25 @@
       </c>
       <c r="J84" s="2">
         <f t="shared" si="2"/>
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K84" t="s">
         <v>4</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/326.jpg</v>
+        <v>Stimuli/245.jpg</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>1111</v>
+        <v>2981</v>
       </c>
       <c r="B85">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="C85">
-        <v>5.2</v>
+        <v>5.97</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2883,14 +2883,14 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" si="2"/>
-        <v>1111</v>
+        <v>2981</v>
       </c>
       <c r="K85" t="s">
         <v>4</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/1111.jpg</v>
+        <v>Stimuli/2981.jpg</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>3017</v>
+        <v>3101</v>
       </c>
       <c r="B87">
-        <v>2.4500000000000002</v>
+        <v>1.91</v>
       </c>
       <c r="C87">
-        <v>5.34</v>
+        <v>5.6</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2939,25 +2939,25 @@
       </c>
       <c r="J87" s="2">
         <f t="shared" si="2"/>
-        <v>3017</v>
+        <v>3101</v>
       </c>
       <c r="K87" t="s">
         <v>4</v>
       </c>
       <c r="L87" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3017.jpg</v>
+        <v>Stimuli/3101.jpg</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>3022</v>
+        <v>3181</v>
       </c>
       <c r="B88">
-        <v>3.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C88">
-        <v>5.88</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2967,25 +2967,25 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="2"/>
-        <v>3022</v>
+        <v>3181</v>
       </c>
       <c r="K88" t="s">
         <v>4</v>
       </c>
       <c r="L88" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3022.jpg</v>
+        <v>Stimuli/3181.jpg</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>3101</v>
+      <c r="A89" s="5">
+        <v>3215</v>
       </c>
       <c r="B89">
-        <v>1.91</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C89">
-        <v>5.6</v>
+        <v>5.44</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="2"/>
-        <v>3101</v>
+        <v>3215</v>
       </c>
       <c r="K89" t="s">
         <v>4</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3101.jpg</v>
+        <v>Stimuli/3215.jpg</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>3350</v>
+        <v>3220</v>
       </c>
       <c r="B90">
-        <v>1.88</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C90">
-        <v>5.72</v>
+        <v>5.52</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -3023,25 +3023,25 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="2"/>
-        <v>3350</v>
+        <v>3220</v>
       </c>
       <c r="K90" t="s">
         <v>4</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/3350.jpg</v>
+        <v>Stimuli/3220.jpg</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>6571</v>
+        <v>3225</v>
       </c>
       <c r="B91">
-        <v>2.85</v>
+        <v>1.82</v>
       </c>
       <c r="C91">
-        <v>5.59</v>
+        <v>5.95</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -3051,25 +3051,25 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="2"/>
-        <v>6571</v>
+        <v>3225</v>
       </c>
       <c r="K91" t="s">
         <v>4</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/6571.jpg</v>
+        <v>Stimuli/3225.jpg</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>9180</v>
+        <v>6020</v>
       </c>
       <c r="B92">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="C92">
-        <v>5.0199999999999996</v>
+        <v>5.58</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -3079,25 +3079,25 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="2"/>
-        <v>9180</v>
+        <v>6020</v>
       </c>
       <c r="K92" t="s">
         <v>4</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9180.jpg</v>
+        <v>Stimuli/6020.jpg</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>9295</v>
+        <v>6571</v>
       </c>
       <c r="B93">
-        <v>2.39</v>
+        <v>2.85</v>
       </c>
       <c r="C93">
-        <v>5.1100000000000003</v>
+        <v>5.59</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -3107,25 +3107,25 @@
       </c>
       <c r="J93" s="2">
         <f t="shared" si="2"/>
-        <v>9295</v>
+        <v>6571</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9295.jpg</v>
+        <v>Stimuli/6571.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>9332</v>
+        <v>6831</v>
       </c>
       <c r="B94">
-        <v>2.25</v>
+        <v>2.59</v>
       </c>
       <c r="C94">
-        <v>5.34</v>
+        <v>5.55</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -3135,25 +3135,25 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="2"/>
-        <v>9332</v>
+        <v>6831</v>
       </c>
       <c r="K94" t="s">
         <v>4</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9332.jpg</v>
+        <v>Stimuli/6831.jpg</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>9402</v>
+        <v>8231</v>
       </c>
       <c r="B95">
-        <v>4.4800000000000004</v>
+        <v>3.77</v>
       </c>
       <c r="C95">
-        <v>5.07</v>
+        <v>5.24</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -3163,25 +3163,25 @@
       </c>
       <c r="J95" s="2">
         <f t="shared" si="2"/>
-        <v>9402</v>
+        <v>8231</v>
       </c>
       <c r="K95" t="s">
         <v>4</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9402.jpg</v>
+        <v>Stimuli/8231.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>9409</v>
+        <v>9373</v>
       </c>
       <c r="B96">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="C96">
-        <v>5.61</v>
+        <v>5.01</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -3191,25 +3191,25 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="2"/>
-        <v>9409</v>
+        <v>9373</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
       </c>
       <c r="L96" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9409.jpg</v>
+        <v>Stimuli/9373.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>9411</v>
+        <v>9400</v>
       </c>
       <c r="B97">
-        <v>4.63</v>
+        <v>2.5</v>
       </c>
       <c r="C97">
-        <v>5.37</v>
+        <v>5.99</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -3219,25 +3219,25 @@
       </c>
       <c r="J97" s="2">
         <f t="shared" si="2"/>
-        <v>9411</v>
+        <v>9400</v>
       </c>
       <c r="K97" t="s">
         <v>4</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9411.jpg</v>
+        <v>Stimuli/9400.jpg</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>9421</v>
+        <v>9402</v>
       </c>
       <c r="B98">
-        <v>2.21</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C98">
-        <v>5.04</v>
+        <v>5.07</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -3247,25 +3247,25 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="2"/>
-        <v>9421</v>
+        <v>9402</v>
       </c>
       <c r="K98" t="s">
         <v>4</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9421.jpg</v>
+        <v>Stimuli/9402.jpg</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>9425</v>
+        <v>9403</v>
       </c>
       <c r="B99">
-        <v>2.67</v>
+        <v>3.51</v>
       </c>
       <c r="C99">
-        <v>5.92</v>
+        <v>5.62</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -3275,25 +3275,25 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="2"/>
-        <v>9425</v>
+        <v>9403</v>
       </c>
       <c r="K99" t="s">
         <v>4</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9425.jpg</v>
+        <v>Stimuli/9403.jpg</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>9570</v>
+        <v>9405</v>
       </c>
       <c r="B100">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C100">
-        <v>6.14</v>
+        <v>6.08</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -3303,25 +3303,25 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="2"/>
-        <v>9570</v>
+        <v>9405</v>
       </c>
       <c r="K100" t="s">
         <v>4</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9570.jpg</v>
+        <v>Stimuli/9405.jpg</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>9904</v>
+      <c r="A101" s="5">
+        <v>9423</v>
       </c>
       <c r="B101">
-        <v>2.39</v>
+        <v>2.61</v>
       </c>
       <c r="C101">
-        <v>6.08</v>
+        <v>5.66</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -3331,14 +3331,14 @@
       </c>
       <c r="J101" s="2">
         <f t="shared" si="2"/>
-        <v>9904</v>
+        <v>9423</v>
       </c>
       <c r="K101" t="s">
         <v>4</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="3"/>
-        <v>Stimuli/9904.jpg</v>
+        <v>Stimuli/9423.jpg</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
